--- a/SchedulingData/dynamic13/pso/scheduling2_19.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_19.xlsx
@@ -466,74 +466,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>227.58</v>
+        <v>210.4</v>
       </c>
       <c r="D2" t="n">
-        <v>276.94</v>
+        <v>265.72</v>
       </c>
       <c r="E2" t="n">
-        <v>12.936</v>
+        <v>14.088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>276.94</v>
+        <v>240.34</v>
       </c>
       <c r="D3" t="n">
-        <v>333.74</v>
+        <v>277.56</v>
       </c>
       <c r="E3" t="n">
-        <v>9.856</v>
+        <v>11.904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>241.52</v>
+        <v>237.34</v>
       </c>
       <c r="D4" t="n">
-        <v>310.82</v>
+        <v>304.22</v>
       </c>
       <c r="E4" t="n">
-        <v>11.568</v>
+        <v>12.168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>205.4</v>
+        <v>265.72</v>
       </c>
       <c r="D5" t="n">
-        <v>253.66</v>
+        <v>311.12</v>
       </c>
       <c r="E5" t="n">
-        <v>15.164</v>
+        <v>11.668</v>
       </c>
     </row>
     <row r="6">
@@ -542,55 +542,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>260.12</v>
+        <v>204.36</v>
       </c>
       <c r="D6" t="n">
-        <v>302.62</v>
+        <v>244.66</v>
       </c>
       <c r="E6" t="n">
-        <v>10.568</v>
+        <v>13.744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>333.74</v>
+        <v>204.68</v>
       </c>
       <c r="D7" t="n">
-        <v>410.64</v>
+        <v>277.38</v>
       </c>
       <c r="E7" t="n">
-        <v>5.776</v>
+        <v>14.232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>302.62</v>
+        <v>304.22</v>
       </c>
       <c r="D8" t="n">
-        <v>352.32</v>
+        <v>341.82</v>
       </c>
       <c r="E8" t="n">
-        <v>7.708</v>
+        <v>9.048</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>310.82</v>
+        <v>277.56</v>
       </c>
       <c r="D9" t="n">
-        <v>343.82</v>
+        <v>326.84</v>
       </c>
       <c r="E9" t="n">
-        <v>9.407999999999999</v>
+        <v>9.096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>218.24</v>
+        <v>311.12</v>
       </c>
       <c r="D10" t="n">
-        <v>285.02</v>
+        <v>367.8</v>
       </c>
       <c r="E10" t="n">
-        <v>15.428</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>343.82</v>
+        <v>244.66</v>
       </c>
       <c r="D11" t="n">
-        <v>399.04</v>
+        <v>294.74</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496</v>
+        <v>10.356</v>
       </c>
     </row>
     <row r="12">
@@ -656,207 +656,207 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>352.32</v>
+        <v>294.74</v>
       </c>
       <c r="D12" t="n">
-        <v>421.6</v>
+        <v>347.48</v>
       </c>
       <c r="E12" t="n">
-        <v>4.9</v>
+        <v>6.212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>253.66</v>
+        <v>367.8</v>
       </c>
       <c r="D13" t="n">
-        <v>304.86</v>
+        <v>422.56</v>
       </c>
       <c r="E13" t="n">
-        <v>12.164</v>
+        <v>6.224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>258.08</v>
+        <v>277.38</v>
       </c>
       <c r="D14" t="n">
-        <v>303.14</v>
+        <v>338.78</v>
       </c>
       <c r="E14" t="n">
-        <v>13.336</v>
+        <v>11.232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>399.04</v>
+        <v>255.38</v>
       </c>
       <c r="D15" t="n">
-        <v>446.24</v>
+        <v>283.38</v>
       </c>
       <c r="E15" t="n">
-        <v>3.416</v>
+        <v>13.252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>304.86</v>
+        <v>326.84</v>
       </c>
       <c r="D16" t="n">
-        <v>352.56</v>
+        <v>366.36</v>
       </c>
       <c r="E16" t="n">
-        <v>8.523999999999999</v>
+        <v>6.764</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>352.56</v>
+        <v>341.82</v>
       </c>
       <c r="D17" t="n">
-        <v>433.24</v>
+        <v>378.82</v>
       </c>
       <c r="E17" t="n">
-        <v>5.556</v>
+        <v>6.968</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>446.24</v>
+        <v>283.38</v>
       </c>
       <c r="D18" t="n">
-        <v>505</v>
+        <v>321.18</v>
       </c>
       <c r="E18" t="n">
-        <v>0.68</v>
+        <v>10.612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>505</v>
+        <v>347.48</v>
       </c>
       <c r="D19" t="n">
-        <v>595.24</v>
+        <v>399.38</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>3.132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>285.02</v>
+        <v>366.36</v>
       </c>
       <c r="D20" t="n">
-        <v>347.04</v>
+        <v>416.88</v>
       </c>
       <c r="E20" t="n">
-        <v>12.836</v>
+        <v>3.332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>421.6</v>
+        <v>321.18</v>
       </c>
       <c r="D21" t="n">
-        <v>466.92</v>
+        <v>396.34</v>
       </c>
       <c r="E21" t="n">
-        <v>1.988</v>
+        <v>7.196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>466.92</v>
+        <v>422.56</v>
       </c>
       <c r="D22" t="n">
-        <v>549.74</v>
+        <v>467.14</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>2.896</v>
       </c>
     </row>
     <row r="23">
@@ -865,188 +865,188 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>433.24</v>
+        <v>338.78</v>
       </c>
       <c r="D23" t="n">
-        <v>483.34</v>
+        <v>394.84</v>
       </c>
       <c r="E23" t="n">
-        <v>3.156</v>
+        <v>7.256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>303.14</v>
+        <v>416.88</v>
       </c>
       <c r="D24" t="n">
-        <v>352.52</v>
+        <v>467.04</v>
       </c>
       <c r="E24" t="n">
-        <v>10.528</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>410.64</v>
+        <v>467.04</v>
       </c>
       <c r="D25" t="n">
-        <v>470.2</v>
+        <v>542.13</v>
       </c>
       <c r="E25" t="n">
-        <v>3.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>347.04</v>
+        <v>542.13</v>
       </c>
       <c r="D26" t="n">
-        <v>399.12</v>
+        <v>598.61</v>
       </c>
       <c r="E26" t="n">
-        <v>9.768000000000001</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>549.74</v>
+        <v>598.61</v>
       </c>
       <c r="D27" t="n">
-        <v>625.4</v>
+        <v>663.13</v>
       </c>
       <c r="E27" t="n">
-        <v>26.584</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>595.24</v>
+        <v>399.38</v>
       </c>
       <c r="D28" t="n">
-        <v>672.34</v>
+        <v>449.8</v>
       </c>
       <c r="E28" t="n">
-        <v>27.92</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>483.34</v>
+        <v>449.8</v>
       </c>
       <c r="D29" t="n">
-        <v>553</v>
+        <v>536.16</v>
       </c>
       <c r="E29" t="n">
-        <v>0.78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>553</v>
+        <v>378.82</v>
       </c>
       <c r="D30" t="n">
-        <v>628.4400000000001</v>
+        <v>438.32</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>4.108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>399.12</v>
+        <v>467.14</v>
       </c>
       <c r="D31" t="n">
-        <v>474.88</v>
+        <v>562.85</v>
       </c>
       <c r="E31" t="n">
-        <v>5.792</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>352.52</v>
+        <v>562.85</v>
       </c>
       <c r="D32" t="n">
-        <v>412.52</v>
+        <v>601.65</v>
       </c>
       <c r="E32" t="n">
-        <v>6.148</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="33">
@@ -1055,36 +1055,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>474.88</v>
+        <v>396.34</v>
       </c>
       <c r="D33" t="n">
-        <v>524.58</v>
+        <v>452.6</v>
       </c>
       <c r="E33" t="n">
-        <v>1.952</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>524.58</v>
+        <v>438.32</v>
       </c>
       <c r="D34" t="n">
-        <v>612.1799999999999</v>
+        <v>502.52</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1093,112 +1093,112 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>412.52</v>
+        <v>502.52</v>
       </c>
       <c r="D35" t="n">
-        <v>461.9</v>
+        <v>587.5</v>
       </c>
       <c r="E35" t="n">
-        <v>3.34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>612.1799999999999</v>
+        <v>601.65</v>
       </c>
       <c r="D36" t="n">
-        <v>652.3</v>
+        <v>641.71</v>
       </c>
       <c r="E36" t="n">
-        <v>27.668</v>
+        <v>24.444</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>672.34</v>
+        <v>394.84</v>
       </c>
       <c r="D37" t="n">
-        <v>741.4400000000001</v>
+        <v>431.6</v>
       </c>
       <c r="E37" t="n">
-        <v>24.62</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>470.2</v>
+        <v>536.16</v>
       </c>
       <c r="D38" t="n">
-        <v>500.8</v>
+        <v>581.14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.98</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>500.8</v>
+        <v>452.6</v>
       </c>
       <c r="D39" t="n">
-        <v>600.24</v>
+        <v>510.62</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>1.508</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>628.4400000000001</v>
+        <v>510.62</v>
       </c>
       <c r="D40" t="n">
-        <v>667.24</v>
+        <v>589.5</v>
       </c>
       <c r="E40" t="n">
-        <v>26.82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -1207,74 +1207,74 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>461.9</v>
+        <v>587.5</v>
       </c>
       <c r="D41" t="n">
-        <v>526.1799999999999</v>
+        <v>675.3</v>
       </c>
       <c r="E41" t="n">
-        <v>0.012</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>526.1799999999999</v>
+        <v>431.6</v>
       </c>
       <c r="D42" t="n">
-        <v>627.66</v>
+        <v>498.9</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>652.3</v>
+        <v>498.9</v>
       </c>
       <c r="D43" t="n">
-        <v>693.46</v>
+        <v>593.4</v>
       </c>
       <c r="E43" t="n">
-        <v>25.172</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>627.66</v>
+        <v>593.4</v>
       </c>
       <c r="D44" t="n">
-        <v>692.58</v>
+        <v>633.48</v>
       </c>
       <c r="E44" t="n">
-        <v>27.668</v>
+        <v>27.192</v>
       </c>
     </row>
   </sheetData>
